--- a/Instances/02_SlowMoving_b2_fe25_en_rk50_ll0_l20.xlsx
+++ b/Instances/02_SlowMoving_b2_fe25_en_rk50_ll0_l20.xlsx
@@ -495,7 +495,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1603,7 +1603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1825,6 +1825,50 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1839,7 +1883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2061,6 +2105,50 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>0</v>
       </c>
     </row>
